--- a/Catalogue_TechSolutions_Complet.xlsx
+++ b/Catalogue_TechSolutions_Complet.xlsx
@@ -19,7 +19,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00 €"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -44,6 +44,23 @@
     </font>
     <font>
       <color rgb="000066CC"/>
+      <sz val="8"/>
+    </font>
+    <font>
+      <color rgb="000066CC"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="000066CC"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <color rgb="00666666"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <color rgb="00999999"/>
       <sz val="8"/>
     </font>
   </fonts>
@@ -87,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -110,6 +127,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -475,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:F234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -6875,6 +6896,34 @@
         <v>46.8</v>
       </c>
     </row>
+    <row r="231">
+      <c r="A231" s="8" t="inlineStr">
+        <is>
+          <t>━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="9" t="inlineStr">
+        <is>
+          <t>Catalogue créé par LUMNI - Digital Solutions Provider</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="10" t="inlineStr">
+        <is>
+          <t>Site web et outils développés par Lumni pour TechSolutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="11" t="inlineStr">
+        <is>
+          <t>© 2025 TechSolutions | Développé par Lumni</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
